--- a/data/0.reference/2.look_ups/Oromiya/weredas_field.xlsx
+++ b/data/0.reference/2.look_ups/Oromiya/weredas_field.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t xml:space="preserve">Region</t>
   </si>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">enkelo wabe</t>
   </si>
   <si>
-    <t xml:space="preserve">hetosa</t>
+    <t xml:space="preserve">hitosa</t>
   </si>
   <si>
     <t xml:space="preserve">robe</t>
@@ -77,7 +77,10 @@
     <t xml:space="preserve">burqaa</t>
   </si>
   <si>
-    <t xml:space="preserve">fadiis</t>
+    <t xml:space="preserve">deder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fedis</t>
   </si>
   <si>
     <t xml:space="preserve">g /muxii</t>
@@ -104,7 +107,7 @@
     <t xml:space="preserve">jaarsoo</t>
   </si>
   <si>
-    <t xml:space="preserve">meeta</t>
+    <t xml:space="preserve">meta</t>
   </si>
   <si>
     <t xml:space="preserve">midega tola</t>
@@ -131,24 +134,6 @@
     <t xml:space="preserve">seka chekorsa</t>
   </si>
   <si>
-    <t xml:space="preserve">unkown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dadar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fedis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gursuum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m/tola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meta</t>
-  </si>
-  <si>
     <t xml:space="preserve">west arsi</t>
   </si>
   <si>
@@ -161,6 +146,9 @@
     <t xml:space="preserve">ar/lixa</t>
   </si>
   <si>
+    <t xml:space="preserve">arsi negele</t>
+  </si>
+  <si>
     <t xml:space="preserve">arsii</t>
   </si>
   <si>
@@ -174,9 +162,6 @@
   </si>
   <si>
     <t xml:space="preserve">kore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nagele</t>
   </si>
   <si>
     <t xml:space="preserve">xana</t>
@@ -848,10 +833,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
         <v>33</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -859,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
@@ -870,7 +855,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
         <v>36</v>
@@ -881,7 +866,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
@@ -892,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
         <v>38</v>
@@ -903,10 +888,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
         <v>39</v>
-      </c>
-      <c r="C34" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +899,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36">
@@ -925,10 +910,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37">
@@ -936,10 +921,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
@@ -947,10 +932,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
@@ -958,10 +943,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40">
@@ -969,19 +954,21 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40"/>
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -989,7 +976,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
         <v>47</v>
@@ -1000,7 +987,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
         <v>48</v>
@@ -1011,7 +998,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
         <v>49</v>
@@ -1022,10 +1009,10 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -1033,10 +1020,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -1044,10 +1031,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -1055,10 +1042,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49">
@@ -1066,10 +1053,10 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50">
@@ -1077,10 +1064,10 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51">
@@ -1088,10 +1075,10 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52">
@@ -1099,10 +1086,10 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53">
@@ -1110,10 +1097,10 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54">
@@ -1121,10 +1108,10 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55">
@@ -1132,76 +1119,10 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
